--- a/my_results2.xlsx
+++ b/my_results2.xlsx
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39.91</v>
+        <v>37.94</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>After a Flaps 15 takeoff, select Flaps 5 at V2 + 15 knots. Remember to limit the bank angle to 15 degrees until reaching V2 + 15.</t>
+          <t>For a Flaps 15 takeoff, select Flaps 5 at V2 + 15 knots.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>25.48</v>
+        <v>27.25</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -638,30 +638,30 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>For a wet runway at 1,000 feet pressure altitude with a 1,600-meter wind-corrected field length, the Field Limit Weight is 55,800 kg. When calculating for a wet runway, you must also determine the dry runway limit and use the lower of the two weights. The dry limit is 64,400 kg, so the wet limit is the more restrictive value.</t>
+          <t>The field limit weight is 55,800 kg.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[99, 104]</t>
+          <t>[99]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[99, 104]</t>
+          <t>[99]</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>37.39</v>
+        <v>29.76</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>When a positive rate of climb is indicated, the Pilot Flying calls “GEAR UP”. The Pilot Not Flying then verifies the positive rate and positions the landing gear lever to UP.</t>
+          <t>When a positive rate of climb is indicated, call “GEAR UP.”</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -718,7 +718,7 @@
         <v>0.6667</v>
       </c>
       <c r="L5" t="n">
-        <v>23.12</v>
+        <v>25.6</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>When the airplane is not moving, responsibility for the forward aisle stand is shared between the Captain and the First Officer. Each crew member is responsible for their respective side.</t>
+          <t>When the airplane is not moving under its own power, responsibility for the forward aisle stand is split. The Captain is responsible for the left side and the First Officer is responsible for the right side.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>23.72</v>
+        <v>22.68</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Prior to turning base, complete these three actions: * Gear down * Flaps 15 (landing flaps for 1 engine) * Arm speedbrake</t>
+          <t>Prior to turning base, you need to complete these three actions: * Gear down * Flaps 15 * Arm speedbrake</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>23.12</v>
+        <v>28.84</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -867,28 +867,32 @@
           <t>[5]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>In flight, CDU entries are normally accomplished by the pilot not flying (PNF). The pilot flying (PF) must verify the entries prior to execution.</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>33.99</v>
+        <v>34.23</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -945,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>18.94</v>
+        <v>19.84</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -979,7 +983,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The ISOLATION VALVE switch is set to AUTO.</t>
+          <t>The ISOLATION VALVE switch should be in the AUTO position.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1002,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>25.5</v>
+        <v>20.62</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1040,7 +1044,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>During the Descent and Approach procedure, set the AUTO BRAKE select switch to the desired brake setting. During the Landing Roll procedure, your final action regarding the autobrake system is to verify its proper operation.</t>
+          <t>During the descent and approach, set the AUTO BRAKE select switch to the desired brake setting . During the landing roll, your final action regarding the autobrake system is to verify its proper operation .</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1063,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>24.4</v>
+        <v>25.66</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1144,7 +1148,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>73.33%</t>
+          <t>86.67%</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1160,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1172,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>85.00%</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1183,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1189,7 +1193,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1203,7 +1207,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.56</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1218,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-11-12 11:49:18</t>
+          <t>2025-11-12 16:59:12</t>
         </is>
       </c>
     </row>
@@ -1295,16 +1299,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[99]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[99]</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1319,16 +1323,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[56]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[56]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1343,16 +1347,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[126]</t>
+          <t>[56]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[126]</t>
+          <t>[56]</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1367,16 +1371,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[35]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[35]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1391,16 +1395,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[43, 47]</t>
+          <t>[126]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[43, 47]</t>
+          <t>[126]</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1415,83 +1419,83 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[99]</t>
+          <t>[35]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[99, 104]</t>
+          <t>[35]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[39, 51]</t>
+          <t>[43, 47]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[39]</t>
+          <t>[43, 47]</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[83]</t>
+          <t>[39, 51]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[39]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[83]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
